--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43135,6 +43135,41 @@
         <v>186600</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>82100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43170,6 +43170,41 @@
         <v>82100</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>513700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43205,6 +43205,41 @@
         <v>513700</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>149500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43240,6 +43240,41 @@
         <v>149500</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>384900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43275,6 +43275,41 @@
         <v>384900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>145200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43310,6 +43310,41 @@
         <v>145200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1136600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43345,6 +43345,41 @@
         <v>1136600</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43380,6 +43380,43 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43417,6 +43417,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1067000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43452,6 +43452,41 @@
         <v>1067000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>235800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43487,6 +43487,41 @@
         <v>235800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>338100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43522,6 +43522,41 @@
         <v>338100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43557,6 +43557,76 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>207600</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1784400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43627,6 +43627,76 @@
         <v>1784400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>84800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43697,6 +43697,41 @@
         <v>84800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>199800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43732,6 +43732,41 @@
         <v>199800</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43767,6 +43767,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>527200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43802,6 +43802,41 @@
         <v>527200</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1541600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43837,6 +43837,76 @@
         <v>1541600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>414300</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>203300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43907,6 +43907,41 @@
         <v>203300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>247000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43942,6 +43942,41 @@
         <v>247000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1538900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2468"/>
+  <dimension ref="A1:I2469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87062,6 +87062,41 @@
         <v>1538900</v>
       </c>
     </row>
+    <row r="2469">
+      <c r="A2469" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2469" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2469" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2469" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2469" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2469" t="n">
+        <v>523700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2469"/>
+  <dimension ref="A1:I2470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87097,6 +87097,41 @@
         <v>523700</v>
       </c>
     </row>
+    <row r="2470">
+      <c r="A2470" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2470" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2470" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2470" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2470" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2470" t="n">
+        <v>835000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2470"/>
+  <dimension ref="A1:I2471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87132,6 +87132,41 @@
         <v>835000</v>
       </c>
     </row>
+    <row r="2471">
+      <c r="A2471" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2471" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2471" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2471" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2471" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2471" t="n">
+        <v>507400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2471"/>
+  <dimension ref="A1:I2472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87167,6 +87167,41 @@
         <v>507400</v>
       </c>
     </row>
+    <row r="2472">
+      <c r="A2472" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2472" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2472" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2472" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2472" t="n">
+        <v>1169300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2472"/>
+  <dimension ref="A1:I2473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87202,6 +87202,41 @@
         <v>1169300</v>
       </c>
     </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2473" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2473" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2473" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2473" t="n">
+        <v>711000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2473"/>
+  <dimension ref="A1:I2474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87237,6 +87237,41 @@
         <v>711000</v>
       </c>
     </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2474" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2474" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2474" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2474" t="n">
+        <v>1032700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2474"/>
+  <dimension ref="A1:I2475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87272,6 +87272,41 @@
         <v>1032700</v>
       </c>
     </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2475" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2475" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2475" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2475" t="n">
+        <v>1180900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2475"/>
+  <dimension ref="A1:I2476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87307,6 +87307,41 @@
         <v>1180900</v>
       </c>
     </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2476" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2476" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2476" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2476" t="n">
+        <v>1140100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2476"/>
+  <dimension ref="A1:I2477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87342,6 +87342,41 @@
         <v>1140100</v>
       </c>
     </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2477" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2477" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2477" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2477" t="n">
+        <v>1048000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2477"/>
+  <dimension ref="A1:I2478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87377,6 +87377,41 @@
         <v>1048000</v>
       </c>
     </row>
+    <row r="2478">
+      <c r="A2478" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2478" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2478" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2478" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2478" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2478" t="n">
+        <v>1130000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2478"/>
+  <dimension ref="A1:I2479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87412,6 +87412,41 @@
         <v>1130000</v>
       </c>
     </row>
+    <row r="2479">
+      <c r="A2479" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2479" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2479" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2479" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2479" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2479" t="n">
+        <v>1609600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2479"/>
+  <dimension ref="A1:I2480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87447,6 +87447,41 @@
         <v>1609600</v>
       </c>
     </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2480" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2480" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2480" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2480" t="n">
+        <v>1876600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2480"/>
+  <dimension ref="A1:I2481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87482,6 +87482,41 @@
         <v>1876600</v>
       </c>
     </row>
+    <row r="2481">
+      <c r="A2481" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2481" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2481" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2481" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2481" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2481" t="n">
+        <v>646000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2481"/>
+  <dimension ref="A1:I2482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87517,6 +87517,41 @@
         <v>646000</v>
       </c>
     </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2482" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2482" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2482" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2482" t="n">
+        <v>120400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0025.xlsx
+++ b/data/0025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2482"/>
+  <dimension ref="A1:I2483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87552,6 +87552,43 @@
         <v>120400</v>
       </c>
     </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>0025</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>YBS</t>
+        </is>
+      </c>
+      <c r="E2483" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2483" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2483" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2483" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
